--- a/Module 2 - Python for Data Analysis/03. Pandas for Beginners/data/temp/new_excel_file_noIndex.xlsx
+++ b/Module 2 - Python for Data Analysis/03. Pandas for Beginners/data/temp/new_excel_file_noIndex.xlsx
@@ -469,9 +469,6 @@
       <c r="B6">
         <v>23</v>
       </c>
-      <c r="C6">
-        <v>2.9</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
